--- a/大画表情设计/大画表情API接口规范.xlsx
+++ b/大画表情设计/大画表情API接口规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="角色权限" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="162">
   <si>
     <t>角色分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>表情发布状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>审核员驳回、附加驳回信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>表情归属状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>父亲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,10 +99,6 @@
   </si>
   <si>
     <t>私生子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -731,6 +719,22 @@
   </si>
   <si>
     <t>小视频处理失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要程度(1重要)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情归属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情发布状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1055,6 +1059,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,6 +1099,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2205,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2219,10 +2232,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -2265,10 +2278,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="23"/>
+      <c r="A9" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
@@ -2283,7 +2296,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2291,142 +2304,142 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="22"/>
+        <v>37</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="94.5">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4" ht="94.5">
       <c r="A25" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+        <v>63</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" ht="189">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="40.5" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2450,7 +2463,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2675,7 +2688,7 @@
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2688,194 +2701,194 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="26"/>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="26"/>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="26"/>
+      <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="24" t="s">
+      <c r="C7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="22" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="27"/>
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="27"/>
+      <c r="B10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="202.5">
+      <c r="A11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="27"/>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="26"/>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="26"/>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="23"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="23"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="25"/>
-      <c r="B5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="22"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="22"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="25"/>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="8" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="26"/>
-      <c r="B8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="202.5">
-      <c r="A11" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5">
-      <c r="A12" s="25"/>
-      <c r="B12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="25"/>
-      <c r="B15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="25"/>
-      <c r="B16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="5" t="s">
+    <row r="23" spans="1:3" ht="27">
+      <c r="A23" s="27"/>
+      <c r="B23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="22"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="27">
-      <c r="A23" s="26"/>
-      <c r="B23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2897,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M28"/>
+  <dimension ref="A3:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2914,82 +2927,87 @@
     <col min="10" max="10" width="11.375" style="4" customWidth="1"/>
     <col min="11" max="12" width="9" style="4"/>
     <col min="13" max="13" width="9.875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
-      <c r="A3" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="22" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>78</v>
+      <c r="B5" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2999,38 +3017,44 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24" t="s">
-        <v>104</v>
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -3039,15 +3063,18 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -3056,17 +3083,20 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="24" t="s">
-        <v>50</v>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -3075,15 +3105,18 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="N9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -3092,17 +3125,20 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24" t="s">
-        <v>109</v>
+      <c r="N10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -3111,15 +3147,18 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="54">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="N11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="54">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -3128,17 +3167,20 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+        <v>113</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -3147,15 +3189,18 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="N13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3164,65 +3209,74 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="40.5">
-      <c r="A15" s="25"/>
-      <c r="B15" s="24" t="s">
-        <v>52</v>
+      <c r="N14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="40.5">
+      <c r="A15" s="26"/>
+      <c r="B15" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="27">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+        <v>115</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="27">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="54">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="54">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -3231,17 +3285,20 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+        <v>118</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -3250,19 +3307,22 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="25"/>
-      <c r="B19" s="24" t="s">
-        <v>127</v>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="26"/>
+      <c r="B19" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -3271,17 +3331,20 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -3290,33 +3353,39 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+      <c r="N21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -3328,12 +3397,15 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" ht="27">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="N22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="27">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -3345,38 +3417,44 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" ht="27">
-      <c r="A24" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="33"/>
+      <c r="N23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="27">
+      <c r="A24" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="34"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="25"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="26"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3385,38 +3463,44 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" ht="27">
-      <c r="A26" s="26"/>
-      <c r="B26" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="31"/>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="27">
+      <c r="A26" s="27"/>
+      <c r="B26" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="32"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="31"/>
+        <v>145</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="32"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3427,13 +3511,16 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="26"/>
-      <c r="B28" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="31"/>
+      <c r="N27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="27"/>
+      <c r="B28" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="32"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3444,9 +3531,20 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="A5:A23"/>
     <mergeCell ref="A24:A26"/>
@@ -3462,13 +3560,6 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3477,82 +3568,106 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="37"/>
+    <col min="2" max="2" width="30.625" style="37" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="37"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="22">
+        <v>11001</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="22">
+        <v>11002</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="22">
+        <v>11003</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="22">
+        <v>12001</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>11001</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="22">
+        <v>12002</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>11002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>11003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>12001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>12002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>160</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/大画表情设计/大画表情API接口规范.xlsx
+++ b/大画表情设计/大画表情API接口规范.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="角色权限" sheetId="1" r:id="rId1"/>
     <sheet name="框架图" sheetId="5" r:id="rId2"/>
-    <sheet name="功能" sheetId="2" r:id="rId3"/>
-    <sheet name="API接口" sheetId="3" r:id="rId4"/>
-    <sheet name="错误码参照" sheetId="4" r:id="rId5"/>
+    <sheet name="文件存储" sheetId="6" r:id="rId3"/>
+    <sheet name="功能" sheetId="2" r:id="rId4"/>
+    <sheet name="API接口" sheetId="3" r:id="rId5"/>
+    <sheet name="错误码参照" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="166">
   <si>
     <t>角色分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -394,21 +395,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>暂时不做</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -417,7 +415,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -737,22 +735,38 @@
     <t>表情发布状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">七牛云(yun):   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云(local):</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序直接浏览的图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片服务调取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -760,46 +774,36 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -834,15 +838,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -869,48 +864,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -987,11 +943,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1011,16 +1015,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1030,18 +1046,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,55 +1060,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,11 +1142,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1930,7 +1926,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2004,7 +2000,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2039,7 +2034,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2215,19 +2209,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="35" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="17.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2245,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="15.6">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2375,82 +2369,12 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" ht="94.5">
-      <c r="A24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:4" ht="94.5">
-      <c r="A25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:4" ht="189">
-      <c r="A26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="23"/>
-    </row>
+    <row r="27" spans="1:4" ht="40.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C23:D23"/>
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2459,14 +2383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="11"/>
@@ -2679,33 +2603,145 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" ht="100.8">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" ht="100.8">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" ht="201.6">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
@@ -2719,32 +2755,32 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
@@ -2753,7 +2789,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="5" t="s">
         <v>132</v>
       </c>
@@ -2762,7 +2798,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2772,8 +2808,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:4" ht="28.8">
+      <c r="A10" s="28"/>
       <c r="B10" s="10" t="s">
         <v>76</v>
       </c>
@@ -2784,8 +2820,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="202.5">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:4" ht="216">
+      <c r="A11" s="26" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2795,8 +2831,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40.5">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:4" ht="43.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>60</v>
       </c>
@@ -2805,7 +2841,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>65</v>
       </c>
@@ -2814,7 +2850,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -2826,34 +2862,34 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="24" t="s">
@@ -2863,7 +2899,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2874,7 +2910,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
@@ -2882,8 +2918,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:3" ht="28.8">
+      <c r="A23" s="28"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
       </c>
@@ -2908,69 +2944,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="11.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="4" customWidth="1"/>
     <col min="11" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="9.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" style="4" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="25" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="1" t="s">
         <v>87</v>
       </c>
@@ -2992,14 +3028,14 @@
       <c r="L4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3022,8 +3058,8 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
@@ -3046,9 +3082,9 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="26" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="5"/>
@@ -3068,9 +3104,9 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -3088,9 +3124,9 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="26" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="5"/>
@@ -3110,9 +3146,9 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -3130,9 +3166,9 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="5"/>
@@ -3151,10 +3187,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="54">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+    <row r="12" spans="1:14" ht="57.6">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -3174,9 +3210,9 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
@@ -3194,9 +3230,9 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -3213,9 +3249,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="40.5">
-      <c r="A15" s="26"/>
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:14" ht="43.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3241,9 +3277,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="27">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:14" ht="28.8">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="5" t="s">
         <v>119</v>
       </c>
@@ -3267,10 +3303,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="54">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="25" t="s">
+    <row r="17" spans="1:14" ht="57.6">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="5"/>
@@ -3292,9 +3328,9 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
@@ -3312,8 +3348,8 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="26"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="26" t="s">
         <v>124</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -3336,8 +3372,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="5" t="s">
         <v>130</v>
       </c>
@@ -3358,8 +3394,8 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="5" t="s">
         <v>136</v>
       </c>
@@ -3382,8 +3418,8 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="5" t="s">
         <v>137</v>
       </c>
@@ -3401,9 +3437,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="27">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+    <row r="23" spans="1:14" ht="28.8">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="5" t="s">
         <v>138</v>
       </c>
@@ -3421,14 +3457,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="27">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:14" ht="28.8">
+      <c r="A24" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
@@ -3448,9 +3484,9 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="26"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
@@ -3467,12 +3503,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="27">
-      <c r="A26" s="27"/>
-      <c r="B26" s="31" t="s">
+    <row r="26" spans="1:14" ht="28.8">
+      <c r="A26" s="28"/>
+      <c r="B26" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="32"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
@@ -3494,13 +3530,13 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3516,11 +3552,11 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="27"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3537,48 +3573,48 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="A5:A23"/>
     <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="37"/>
-    <col min="2" max="2" width="30.625" style="37" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="37"/>
+    <col min="1" max="1" width="9" style="22"/>
+    <col min="2" max="2" width="30.6640625" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3588,48 +3624,48 @@
       <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22">
+      <c r="A3" s="1">
         <v>11001</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22">
+      <c r="A4" s="1">
         <v>11002</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="22">
+      <c r="A5" s="1">
         <v>11003</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
@@ -3638,26 +3674,26 @@
       <c r="B10" s="24"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="22">
+      <c r="A12" s="1">
         <v>12001</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="22">
+      <c r="A13" s="1">
         <v>12002</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="1" t="s">
         <v>157</v>
       </c>
     </row>

--- a/大画表情设计/大画表情API接口规范.xlsx
+++ b/大画表情设计/大画表情API接口规范.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色权限" sheetId="1" r:id="rId1"/>
     <sheet name="框架图" sheetId="5" r:id="rId2"/>
     <sheet name="文件存储" sheetId="6" r:id="rId3"/>
-    <sheet name="功能" sheetId="2" r:id="rId4"/>
-    <sheet name="API接口" sheetId="3" r:id="rId5"/>
-    <sheet name="错误码参照" sheetId="4" r:id="rId6"/>
+    <sheet name="数据库结构" sheetId="7" r:id="rId4"/>
+    <sheet name="功能" sheetId="2" r:id="rId5"/>
+    <sheet name="API接口" sheetId="3" r:id="rId6"/>
+    <sheet name="错误码参照" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="211">
   <si>
     <t>角色分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -751,12 +752,257 @@
     <t>图片服务调取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段（备注）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色参数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>样例</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片类别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储空间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sRGB</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64/128c</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpg/png/gif</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>yun_url</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_url</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ath</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键——地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、3</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键——文件类别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>原创图片表 (father)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +1050,29 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -995,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1108,6 +1377,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1142,6 +1420,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1926,7 +2209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2000,6 +2283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2034,6 +2318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2209,19 +2494,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="35" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2239,7 +2524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2247,7 +2532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2383,14 +2668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="11"/>
@@ -2609,18 +2894,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="A4:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2659,7 +2944,7 @@
       </c>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:4" ht="100.8">
+    <row r="6" spans="1:4" ht="94.5">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -2671,7 +2956,7 @@
       </c>
       <c r="D6" s="25"/>
     </row>
-    <row r="7" spans="1:4" ht="100.8">
+    <row r="7" spans="1:4" ht="94.5">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -2681,7 +2966,7 @@
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
     </row>
-    <row r="8" spans="1:4" ht="201.6">
+    <row r="8" spans="1:4" ht="189">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -2720,19 +3005,436 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:6">
+      <c r="A4" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="27">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="39"/>
+      <c r="B21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="39"/>
+      <c r="B22" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="39"/>
+      <c r="B27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="39"/>
+      <c r="B28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5"/>
+      <c r="B29" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5"/>
+      <c r="B30" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="39"/>
+      <c r="B35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="39"/>
+      <c r="B36" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2808,7 +3510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8">
+    <row r="10" spans="1:4">
       <c r="A10" s="28"/>
       <c r="B10" s="10" t="s">
         <v>76</v>
@@ -2820,7 +3522,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="216">
+    <row r="11" spans="1:4" ht="202.5">
       <c r="A11" s="26" t="s">
         <v>53</v>
       </c>
@@ -2831,7 +3533,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.2">
+    <row r="12" spans="1:4" ht="40.5">
       <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>60</v>
@@ -2918,7 +3620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8">
+    <row r="23" spans="1:3" ht="27">
       <c r="A23" s="28"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
@@ -2944,25 +3646,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="4" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="11.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="4" customWidth="1"/>
     <col min="11" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="9.88671875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="4" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
@@ -3187,7 +3889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="57.6">
+    <row r="12" spans="1:14" ht="54">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -3249,7 +3951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="43.2">
+    <row r="15" spans="1:14" ht="40.5">
       <c r="A15" s="27"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
@@ -3277,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="28.8">
+    <row r="16" spans="1:14" ht="27">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="5" t="s">
@@ -3303,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="57.6">
+    <row r="17" spans="1:14" ht="54">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="26" t="s">
@@ -3437,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="28.8">
+    <row r="23" spans="1:14" ht="27">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="5" t="s">
@@ -3457,7 +4159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="28.8">
+    <row r="24" spans="1:14" ht="27">
       <c r="A24" s="26" t="s">
         <v>96</v>
       </c>
@@ -3503,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="28.8">
+    <row r="26" spans="1:14" ht="27">
       <c r="A26" s="28"/>
       <c r="B26" s="32" t="s">
         <v>143</v>
@@ -3573,6 +4275,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B19:B23"/>
@@ -3584,36 +4297,25 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="N3:N4"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="30.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="22" customWidth="1"/>
     <col min="3" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>

--- a/大画表情设计/大画表情API接口规范.xlsx
+++ b/大画表情设计/大画表情API接口规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色权限" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1133,27 +1133,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1169,24 +1151,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1264,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1290,31 +1254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1335,56 +1275,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1432,16 +1372,119 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="1000125"/>
+          <a:ext cx="1162050" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="肘形连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2600325" y="2990849"/>
+          <a:ext cx="676275" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1450,8 +1493,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11534775" y="3600450"/>
-          <a:ext cx="914400" cy="2076450"/>
+          <a:off x="400050" y="733425"/>
+          <a:ext cx="914400" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1490,15 +1533,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1507,8 +1550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13611225" y="3609975"/>
-          <a:ext cx="914400" cy="2076450"/>
+          <a:off x="2476500" y="742950"/>
+          <a:ext cx="914400" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1551,15 +1594,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1568,7 +1611,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13611225" y="600075"/>
+          <a:off x="2486025" y="3333750"/>
           <a:ext cx="914400" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1608,15 +1651,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1625,7 +1668,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13611225" y="6705600"/>
+          <a:off x="2476500" y="2124075"/>
           <a:ext cx="914400" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1669,28 +1712,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="直接连接符 6"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="0"/>
+          <a:stCxn id="2" idx="2"/>
           <a:endCxn id="5" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11991975" y="866775"/>
-          <a:ext cx="1619250" cy="2733675"/>
+        <a:xfrm>
+          <a:off x="857250" y="1266825"/>
+          <a:ext cx="1628775" cy="2333625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1719,70 +1762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直接连接符 7"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14068425" y="1133475"/>
-          <a:ext cx="0" cy="2476500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1791,8 +1780,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13868400" y="5695950"/>
-          <a:ext cx="0" cy="1019175"/>
+          <a:off x="2733675" y="1285875"/>
+          <a:ext cx="0" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1822,15 +1811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1839,7 +1828,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13687426" y="1619249"/>
+          <a:off x="2552701" y="2914649"/>
           <a:ext cx="781050" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1891,15 +1880,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1908,7 +1897,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13001625" y="6095999"/>
+          <a:off x="1866900" y="1514474"/>
           <a:ext cx="962026" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1955,15 +1944,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1972,8 +1961,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14306550" y="5695950"/>
-          <a:ext cx="0" cy="1019175"/>
+          <a:off x="3171825" y="1285875"/>
+          <a:ext cx="0" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2003,15 +1992,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2020,7 +2009,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14173200" y="6115049"/>
+          <a:off x="3038475" y="1533524"/>
           <a:ext cx="962026" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2067,15 +2056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2084,8 +2073,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12449176" y="1371599"/>
-          <a:ext cx="781050" cy="409575"/>
+          <a:off x="1304926" y="2381249"/>
+          <a:ext cx="781050" cy="247651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2132,15 +2121,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2149,8 +2138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12649201" y="3638549"/>
-          <a:ext cx="761999" cy="2028826"/>
+          <a:off x="1514476" y="771524"/>
+          <a:ext cx="761999" cy="485776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,10 +2500,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -2557,10 +2546,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
@@ -2595,11 +2584,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
@@ -2671,219 +2660,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="15"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="15"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2925,12 +2914,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
@@ -2939,10 +2928,10 @@
       <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="94.5">
       <c r="A6" s="5" t="s">
@@ -2951,10 +2940,10 @@
       <c r="B6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="94.5">
       <c r="A7" s="5" t="s">
@@ -2963,8 +2952,8 @@
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="189">
       <c r="A8" s="5" t="s">
@@ -2973,10 +2962,10 @@
       <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
@@ -2985,10 +2974,10 @@
       <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3008,7 +2997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -3023,32 +3012,32 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="16" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3087,10 +3076,10 @@
       <c r="D8" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="17" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3100,10 +3089,10 @@
         <v>195</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="17" t="s">
         <v>203</v>
       </c>
       <c r="F9" s="5"/>
@@ -3117,7 +3106,7 @@
       <c r="D10" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="17" t="s">
         <v>203</v>
       </c>
       <c r="F10" s="5"/>
@@ -3197,37 +3186,37 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="39"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
         <v>182</v>
       </c>
@@ -3238,10 +3227,10 @@
       <c r="E21" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="39"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="5" t="s">
         <v>172</v>
       </c>
@@ -3250,17 +3239,17 @@
         <v>168</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="39"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5"/>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E23" s="5"/>
@@ -3269,37 +3258,37 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="39"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="5" t="s">
         <v>182</v>
       </c>
@@ -3310,10 +3299,10 @@
       <c r="E27" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="39"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="5" t="s">
         <v>172</v>
       </c>
@@ -3322,17 +3311,17 @@
         <v>168</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="39"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5"/>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="17" t="s">
         <v>201</v>
       </c>
       <c r="E29" s="5"/>
@@ -3340,50 +3329,50 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="17" t="s">
         <v>202</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="39"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="5" t="s">
         <v>182</v>
       </c>
@@ -3394,10 +3383,10 @@
       <c r="E35" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="39"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="39"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="5" t="s">
         <v>172</v>
       </c>
@@ -3406,7 +3395,7 @@
         <v>168</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="39"/>
+      <c r="F36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3439,11 +3428,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
@@ -3457,32 +3446,32 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="27"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="27"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
@@ -3491,7 +3480,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="28"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="5" t="s">
         <v>132</v>
       </c>
@@ -3500,7 +3489,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3511,19 +3500,19 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="202.5">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3534,7 +3523,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5">
-      <c r="A12" s="27"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>60</v>
       </c>
@@ -3543,7 +3532,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="28"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>65</v>
       </c>
@@ -3552,56 +3541,56 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="27"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="27"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="21" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3612,7 +3601,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
@@ -3621,7 +3610,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
-      <c r="A23" s="28"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
       </c>
@@ -3670,45 +3659,45 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="19" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="1" t="s">
         <v>87</v>
       </c>
@@ -3730,14 +3719,14 @@
       <c r="L4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3760,8 +3749,8 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
@@ -3784,9 +3773,9 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="5"/>
@@ -3806,9 +3795,9 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -3826,9 +3815,9 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="26" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="5"/>
@@ -3848,9 +3837,9 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -3868,9 +3857,9 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="5"/>
@@ -3890,9 +3879,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="54">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -3912,9 +3901,9 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
@@ -3932,9 +3921,9 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -3952,8 +3941,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.5">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3980,8 +3969,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="27">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="5" t="s">
         <v>119</v>
       </c>
@@ -4006,9 +3995,9 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="54">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="21" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="5"/>
@@ -4030,9 +4019,9 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
@@ -4050,8 +4039,8 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="27"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="21" t="s">
         <v>124</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -4074,8 +4063,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="5" t="s">
         <v>130</v>
       </c>
@@ -4096,8 +4085,8 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="5" t="s">
         <v>136</v>
       </c>
@@ -4120,8 +4109,8 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="5" t="s">
         <v>137</v>
       </c>
@@ -4140,8 +4129,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="27">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="5" t="s">
         <v>138</v>
       </c>
@@ -4160,13 +4149,13 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="27">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
@@ -4186,9 +4175,9 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="27"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
@@ -4206,11 +4195,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="27">
-      <c r="A26" s="28"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
@@ -4232,13 +4221,13 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -4254,11 +4243,11 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="28"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -4275,17 +4264,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B19:B23"/>
@@ -4298,6 +4276,17 @@
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4314,16 +4303,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="30.625" style="22" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="30.625" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
@@ -4358,22 +4347,22 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">

--- a/大画表情设计/大画表情API接口规范.xlsx
+++ b/大画表情设计/大画表情API接口规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="角色权限" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="功能" sheetId="2" r:id="rId5"/>
     <sheet name="API接口" sheetId="3" r:id="rId6"/>
     <sheet name="错误码参照" sheetId="4" r:id="rId7"/>
+    <sheet name="小程序页面" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="227">
   <si>
     <t>角色分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -995,6 +996,95 @@
   </si>
   <si>
     <t>原创图片表 (father)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共页面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人图库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>父页面序号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含操作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼接</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水印</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1上传空闲
+2上传中
+3功能菜单1级
+4功能菜单2级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人图库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别编辑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1文字大小、X/Y位置
+2确认编辑
+3分享</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1选择图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12
+2确认拼接
+3分享</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1功能栏：分享、拼接、水印、裁剪
+2目录
+3上传图片、小视频
+4自动刷新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1功能栏：分享、收藏
+2搜索、标签
+3刷新</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1324,6 +1414,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2660,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3414,8 +3510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4264,6 +4360,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B19:B23"/>
@@ -4276,17 +4383,6 @@
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4397,4 +4493,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="40.5">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="67.5">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="40.5">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/大画表情设计/大画表情API接口规范.xlsx
+++ b/大画表情设计/大画表情API接口规范.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="14808" windowHeight="7980" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="角色权限" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="233">
   <si>
     <t>角色分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -880,11 +880,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ost</t>
     </r>
@@ -897,11 +895,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ath</t>
     </r>
@@ -918,11 +914,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>tring</t>
     </r>
@@ -935,11 +929,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>tring</t>
     </r>
@@ -972,11 +964,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2、3</t>
     </r>
@@ -1062,11 +1052,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>12
 2确认拼接
@@ -1075,23 +1063,79 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1功能栏：分享、拼接、水印、裁剪
-2目录
-3上传图片、小视频
-4自动刷新</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1功能栏：分享、收藏
 2搜索、标签
 3刷新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共操作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立页面功能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1上传空闲
+2上传中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1功能栏：分享、拼接、水印、裁剪、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2目录
+3上传图片、小视频
+4自动刷新
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5、临时图片栏</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1145,24 +1189,19 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1226,50 +1265,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1314,11 +1309,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1371,6 +1410,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1383,43 +1425,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1456,11 +1498,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2294,7 +2331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2368,7 +2405,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2403,7 +2439,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2579,27 +2614,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="35" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="17.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -2609,7 +2644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2617,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="15.6">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2642,10 +2677,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
@@ -2680,11 +2715,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
@@ -2753,14 +2788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6"/>
@@ -2979,18 +3014,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="A4:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="39.75" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3010,12 +3045,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
@@ -3024,44 +3059,44 @@
       <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4" ht="94.5">
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="100.8">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" ht="94.5">
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="100.8">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" ht="189">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="201.6">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
@@ -3070,10 +3105,10 @@
       <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3090,34 +3125,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8">
       <c r="A5" s="16" t="s">
         <v>167</v>
       </c>
@@ -3163,7 +3198,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="27">
+    <row r="8" spans="1:6" ht="28.8">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>185</v>
@@ -3282,16 +3317,16 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8">
       <c r="A20" s="16" t="s">
         <v>167</v>
       </c>
@@ -3354,16 +3389,16 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.8">
       <c r="A26" s="16" t="s">
         <v>167</v>
       </c>
@@ -3438,16 +3473,16 @@
       <c r="F30" s="5"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="28.8">
       <c r="A34" s="16" t="s">
         <v>167</v>
       </c>
@@ -3507,28 +3542,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
@@ -3542,32 +3577,32 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
@@ -3576,7 +3611,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="5" t="s">
         <v>132</v>
       </c>
@@ -3585,7 +3620,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3595,8 +3630,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:4" ht="28.8">
+      <c r="A10" s="24"/>
       <c r="B10" s="9" t="s">
         <v>76</v>
       </c>
@@ -3607,8 +3642,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="202.5">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:4" ht="216">
+      <c r="A11" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3618,8 +3653,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40.5">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:4" ht="43.2">
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>60</v>
       </c>
@@ -3628,7 +3663,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>65</v>
       </c>
@@ -3637,7 +3672,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -3649,44 +3684,44 @@
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3697,7 +3732,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
@@ -3705,8 +3740,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27">
-      <c r="A23" s="23"/>
+    <row r="23" spans="1:3" ht="28.8">
+      <c r="A23" s="24"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
       </c>
@@ -3732,68 +3767,68 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="11.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="4" customWidth="1"/>
     <col min="11" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="9.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" style="4" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="1" t="s">
         <v>87</v>
       </c>
@@ -3815,14 +3850,14 @@
       <c r="L4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3845,8 +3880,8 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
@@ -3869,9 +3904,9 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="5"/>
@@ -3891,9 +3926,9 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -3911,9 +3946,9 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="5"/>
@@ -3933,9 +3968,9 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -3953,9 +3988,9 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="5"/>
@@ -3974,10 +4009,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="54">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+    <row r="12" spans="1:14" ht="57.6">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -3997,9 +4032,9 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
@@ -4017,9 +4052,9 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -4036,9 +4071,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="40.5">
-      <c r="A15" s="22"/>
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:14" ht="43.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -4064,9 +4099,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="27">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:14" ht="28.8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
         <v>119</v>
       </c>
@@ -4090,10 +4125,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="54">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="21" t="s">
+    <row r="17" spans="1:14" ht="57.6">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="22" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="5"/>
@@ -4115,9 +4150,9 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
@@ -4135,8 +4170,8 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="22"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="22" t="s">
         <v>124</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -4159,8 +4194,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>130</v>
       </c>
@@ -4181,8 +4216,8 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="5" t="s">
         <v>136</v>
       </c>
@@ -4205,8 +4240,8 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5" t="s">
         <v>137</v>
       </c>
@@ -4224,9 +4259,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="27">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:14" ht="28.8">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
         <v>138</v>
       </c>
@@ -4244,14 +4279,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="27">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:14" ht="28.8">
+      <c r="A24" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
@@ -4271,9 +4306,9 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="22"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
@@ -4290,12 +4325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="27">
-      <c r="A26" s="23"/>
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="1:14" ht="28.8">
+      <c r="A26" s="24"/>
+      <c r="B26" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
@@ -4317,13 +4352,13 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -4339,11 +4374,11 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="23"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -4360,17 +4395,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B19:B23"/>
@@ -4383,6 +4407,17 @@
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4390,25 +4425,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="30.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="14" customWidth="1"/>
     <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
@@ -4455,10 +4490,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
@@ -4496,106 +4531,157 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="14" customWidth="1"/>
     <col min="5" max="5" width="11" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5">
-      <c r="A2" s="14">
+    <row r="11" spans="1:5" ht="43.2">
+      <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="67.5">
-      <c r="A3" s="14">
+      <c r="C11" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="86.4">
+      <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="C12" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="14">
+    <row r="13" spans="1:5">
+      <c r="A13" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B13" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E13" s="34" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.5">
-      <c r="A5" s="14">
+    <row r="14" spans="1:5" ht="43.2">
+      <c r="A14" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C14" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.5">
-      <c r="A6" s="14">
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.2">
+      <c r="A15" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B15" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C15" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E15" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E4:E6"/>
+  <mergeCells count="3">
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="100" r:id="rId1"/>
 </worksheet>
 </file>
--- a/大画表情设计/大画表情API接口规范.xlsx
+++ b/大画表情设计/大画表情API接口规范.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="132" windowWidth="14808" windowHeight="7980" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="角色权限" sheetId="1" r:id="rId1"/>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1498,6 +1498,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2331,7 +2336,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2405,6 +2410,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2439,6 +2445,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2614,19 +2621,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="35" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2644,7 +2651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2652,7 +2659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2788,14 +2795,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6"/>
@@ -3014,18 +3021,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="A4:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3064,7 +3071,7 @@
       </c>
       <c r="D5" s="20"/>
     </row>
-    <row r="6" spans="1:4" ht="100.8">
+    <row r="6" spans="1:4" ht="94.5">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -3076,7 +3083,7 @@
       </c>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="1:4" ht="100.8">
+    <row r="7" spans="1:4" ht="94.5">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -3086,7 +3093,7 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="201.6">
+    <row r="8" spans="1:4" ht="189">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -3125,20 +3132,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -3152,7 +3159,7 @@
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6" ht="28.8">
+    <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
         <v>167</v>
       </c>
@@ -3198,7 +3205,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8">
+    <row r="8" spans="1:6" ht="27">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>185</v>
@@ -3326,7 +3333,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:6" ht="28.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
         <v>167</v>
       </c>
@@ -3398,7 +3405,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:6" ht="28.8">
+    <row r="26" spans="1:6">
       <c r="A26" s="16" t="s">
         <v>167</v>
       </c>
@@ -3482,7 +3489,7 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="28.8">
+    <row r="34" spans="1:6">
       <c r="A34" s="16" t="s">
         <v>167</v>
       </c>
@@ -3542,19 +3549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -3630,7 +3637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8">
+    <row r="10" spans="1:4">
       <c r="A10" s="24"/>
       <c r="B10" s="9" t="s">
         <v>76</v>
@@ -3642,7 +3649,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="216">
+    <row r="11" spans="1:4" ht="202.5">
       <c r="A11" s="22" t="s">
         <v>53</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.2">
+    <row r="12" spans="1:4" ht="40.5">
       <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>60</v>
@@ -3740,7 +3747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8">
+    <row r="23" spans="1:3" ht="27">
       <c r="A23" s="24"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
@@ -3767,24 +3774,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="4" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="11.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="4" customWidth="1"/>
     <col min="11" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="9.88671875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="4" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
@@ -4009,7 +4016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="57.6">
+    <row r="12" spans="1:14" ht="54">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -4071,7 +4078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="43.2">
+    <row r="15" spans="1:14" ht="40.5">
       <c r="A15" s="23"/>
       <c r="B15" s="22" t="s">
         <v>49</v>
@@ -4099,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="28.8">
+    <row r="16" spans="1:14" ht="27">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
@@ -4125,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="57.6">
+    <row r="17" spans="1:14" ht="54">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="22" t="s">
@@ -4259,7 +4266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="28.8">
+    <row r="23" spans="1:14" ht="27">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
@@ -4279,7 +4286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="28.8">
+    <row r="24" spans="1:14" ht="27">
       <c r="A24" s="22" t="s">
         <v>96</v>
       </c>
@@ -4325,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="28.8">
+    <row r="26" spans="1:14" ht="27">
       <c r="A26" s="24"/>
       <c r="B26" s="28" t="s">
         <v>143</v>
@@ -4395,6 +4402,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B19:B23"/>
@@ -4407,17 +4425,6 @@
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4425,17 +4432,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="30.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="14" customWidth="1"/>
     <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -4531,19 +4538,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
     <col min="5" max="5" width="11" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="14"/>
   </cols>
@@ -4574,7 +4581,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8">
+    <row r="3" spans="1:5" ht="27">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -4614,7 +4621,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2">
+    <row r="11" spans="1:5" ht="40.5">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -4625,7 +4632,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="86.4">
+    <row r="12" spans="1:5" ht="81">
       <c r="A12" s="14">
         <v>2</v>
       </c>
@@ -4650,7 +4657,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2">
+    <row r="14" spans="1:5" ht="40.5">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -4662,7 +4669,7 @@
       </c>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" spans="1:5" ht="43.2">
+    <row r="15" spans="1:5" ht="40.5">
       <c r="A15" s="14">
         <v>5</v>
       </c>

--- a/大画表情设计/大画表情API接口规范.xlsx
+++ b/大画表情设计/大画表情API接口规范.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="14808" windowHeight="7980" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="角色权限" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="234">
   <si>
     <t>角色分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1131,11 +1131,15 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>更新的图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1498,11 +1502,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2336,7 +2335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2410,7 +2409,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2445,7 +2443,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2621,19 +2618,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="35" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="17.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2651,7 +2648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="15.6">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2795,14 +2792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6"/>
@@ -3021,18 +3018,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="A4:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="39.75" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3071,7 +3068,7 @@
       </c>
       <c r="D5" s="20"/>
     </row>
-    <row r="6" spans="1:4" ht="94.5">
+    <row r="6" spans="1:4" ht="100.8">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -3083,7 +3080,7 @@
       </c>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="1:4" ht="94.5">
+    <row r="7" spans="1:4" ht="100.8">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -3093,7 +3090,7 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="189">
+    <row r="8" spans="1:4" ht="201.6">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -3132,20 +3129,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -3159,7 +3156,7 @@
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="28.8">
       <c r="A5" s="16" t="s">
         <v>167</v>
       </c>
@@ -3205,7 +3202,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="27">
+    <row r="8" spans="1:6" ht="28.8">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>185</v>
@@ -3333,7 +3330,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="28.8">
       <c r="A20" s="16" t="s">
         <v>167</v>
       </c>
@@ -3405,7 +3402,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="28.8">
       <c r="A26" s="16" t="s">
         <v>167</v>
       </c>
@@ -3489,7 +3486,7 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="28.8">
       <c r="A34" s="16" t="s">
         <v>167</v>
       </c>
@@ -3549,19 +3546,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -3637,7 +3634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="28.8">
       <c r="A10" s="24"/>
       <c r="B10" s="9" t="s">
         <v>76</v>
@@ -3649,7 +3646,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="202.5">
+    <row r="11" spans="1:4" ht="216">
       <c r="A11" s="22" t="s">
         <v>53</v>
       </c>
@@ -3660,7 +3657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40.5">
+    <row r="12" spans="1:4" ht="43.2">
       <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>60</v>
@@ -3747,7 +3744,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27">
+    <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="24"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
@@ -3774,24 +3771,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="11.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="4" customWidth="1"/>
     <col min="11" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="9.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" style="4" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
@@ -4016,7 +4013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="54">
+    <row r="12" spans="1:14" ht="57.6">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -4078,7 +4075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="40.5">
+    <row r="15" spans="1:14" ht="43.2">
       <c r="A15" s="23"/>
       <c r="B15" s="22" t="s">
         <v>49</v>
@@ -4106,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="27">
+    <row r="16" spans="1:14" ht="28.8">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
@@ -4132,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="54">
+    <row r="17" spans="1:14" ht="57.6">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="22" t="s">
@@ -4266,7 +4263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="27">
+    <row r="23" spans="1:14" ht="28.8">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
@@ -4286,7 +4283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="27">
+    <row r="24" spans="1:14" ht="28.8">
       <c r="A24" s="22" t="s">
         <v>96</v>
       </c>
@@ -4332,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="27">
+    <row r="26" spans="1:14" ht="28.8">
       <c r="A26" s="24"/>
       <c r="B26" s="28" t="s">
         <v>143</v>
@@ -4402,29 +4399,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A5:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4432,17 +4429,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="30.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="14" customWidth="1"/>
     <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -4538,19 +4535,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H12" activeCellId="1" sqref="C4 H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="14" customWidth="1"/>
     <col min="5" max="5" width="11" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="14"/>
   </cols>
@@ -4581,7 +4578,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27">
+    <row r="3" spans="1:5" ht="28.8">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -4593,6 +4590,11 @@
       </c>
       <c r="D3" s="14" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4621,7 +4623,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5">
+    <row r="11" spans="1:5" ht="43.2">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="81">
+    <row r="12" spans="1:5" ht="86.4">
       <c r="A12" s="14">
         <v>2</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="40.5">
+    <row r="14" spans="1:5" ht="43.2">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -4669,7 +4671,7 @@
       </c>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" spans="1:5" ht="40.5">
+    <row r="15" spans="1:5" ht="43.2">
       <c r="A15" s="14">
         <v>5</v>
       </c>
